--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hp-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hp-Itgb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.09534366666666</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H2">
-        <v>84.28603099999999</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I2">
-        <v>0.479890924521289</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J2">
-        <v>0.4807023781989443</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N2">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O2">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P2">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q2">
-        <v>4.043444400048444</v>
+        <v>16.30778302436922</v>
       </c>
       <c r="R2">
-        <v>36.390999600436</v>
+        <v>146.770047219323</v>
       </c>
       <c r="S2">
-        <v>0.0002890780224763287</v>
+        <v>0.001563748091919273</v>
       </c>
       <c r="T2">
-        <v>0.0002898139314560932</v>
+        <v>0.001567969211797945</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.09534366666666</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H3">
-        <v>84.28603099999999</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I3">
-        <v>0.479890924521289</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J3">
-        <v>0.4807023781989443</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,10 +626,10 @@
         <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P3">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q3">
         <v>3.187435469212444</v>
@@ -638,10 +638,10 @@
         <v>28.686919222912</v>
       </c>
       <c r="S3">
-        <v>0.0002278793649789775</v>
+        <v>0.0003056421664213039</v>
       </c>
       <c r="T3">
-        <v>0.0002284594798889748</v>
+        <v>0.0003064672048217395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.09534366666666</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H4">
-        <v>84.28603099999999</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I4">
-        <v>0.479890924521289</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J4">
-        <v>0.4807023781989443</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N4">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O4">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P4">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q4">
-        <v>2790.299975978572</v>
+        <v>3823.777303195935</v>
       </c>
       <c r="R4">
-        <v>25112.69978380714</v>
+        <v>34413.99572876342</v>
       </c>
       <c r="S4">
-        <v>0.199486952055522</v>
+        <v>0.3666607811044352</v>
       </c>
       <c r="T4">
-        <v>0.1999947880995974</v>
+        <v>0.3676505307449605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.09534366666666</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H5">
-        <v>84.28603099999999</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I5">
-        <v>0.479890924521289</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J5">
-        <v>0.4807023781989443</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N5">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O5">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P5">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q5">
-        <v>17.169570230886</v>
+        <v>34.32290135313266</v>
       </c>
       <c r="R5">
-        <v>103.017421385316</v>
+        <v>205.937408118796</v>
       </c>
       <c r="S5">
-        <v>0.001227504305253586</v>
+        <v>0.003291212019432094</v>
       </c>
       <c r="T5">
-        <v>0.0008204194506322309</v>
+        <v>0.00220006412483615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.09534366666666</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H6">
-        <v>84.28603099999999</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I6">
-        <v>0.479890924521289</v>
+        <v>0.6431807885786103</v>
       </c>
       <c r="J6">
-        <v>0.4807023781989443</v>
+        <v>0.6438169333507339</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N6">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O6">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P6">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q6">
-        <v>3897.716708809383</v>
+        <v>2829.912518795432</v>
       </c>
       <c r="R6">
-        <v>35079.45037928445</v>
+        <v>25469.21266915889</v>
       </c>
       <c r="S6">
-        <v>0.2786595107730581</v>
+        <v>0.2713594051964024</v>
       </c>
       <c r="T6">
-        <v>0.2793688972373697</v>
+        <v>0.2720919020643175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>7.793901333333333</v>
+        <v>15.16980166666667</v>
       </c>
       <c r="H7">
-        <v>23.381704</v>
+        <v>45.509405</v>
       </c>
       <c r="I7">
-        <v>0.1331260639078274</v>
+        <v>0.347279076358968</v>
       </c>
       <c r="J7">
-        <v>0.1333511684651965</v>
+        <v>0.3476225564081497</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N7">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O7">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P7">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q7">
-        <v>1.121687888024889</v>
+        <v>8.805225415207222</v>
       </c>
       <c r="R7">
-        <v>10.095190992224</v>
+        <v>79.247028736865</v>
       </c>
       <c r="S7">
-        <v>8.019284659930025E-05</v>
+        <v>0.0008443302453419764</v>
       </c>
       <c r="T7">
-        <v>8.039699437718997E-05</v>
+        <v>0.0008466093970807981</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>7.793901333333333</v>
+        <v>15.16980166666667</v>
       </c>
       <c r="H8">
-        <v>23.381704</v>
+        <v>45.509405</v>
       </c>
       <c r="I8">
-        <v>0.1331260639078274</v>
+        <v>0.347279076358968</v>
       </c>
       <c r="J8">
-        <v>0.1333511684651965</v>
+        <v>0.3476225564081497</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.340352</v>
       </c>
       <c r="O8">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P8">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q8">
-        <v>0.8842233022008888</v>
+        <v>1.721024112284444</v>
       </c>
       <c r="R8">
-        <v>7.958009719808</v>
+        <v>15.48921701056</v>
       </c>
       <c r="S8">
-        <v>6.321578791207311E-05</v>
+        <v>0.0001650284509985352</v>
       </c>
       <c r="T8">
-        <v>6.337671701207479E-05</v>
+        <v>0.0001654739222855386</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>7.793901333333333</v>
+        <v>15.16980166666667</v>
       </c>
       <c r="H9">
-        <v>23.381704</v>
+        <v>45.509405</v>
       </c>
       <c r="I9">
-        <v>0.1331260639078274</v>
+        <v>0.347279076358968</v>
       </c>
       <c r="J9">
-        <v>0.1333511684651965</v>
+        <v>0.3476225564081497</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N9">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O9">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P9">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q9">
-        <v>774.0543401496516</v>
+        <v>2064.610563059395</v>
       </c>
       <c r="R9">
-        <v>6966.489061346864</v>
+        <v>18581.49506753455</v>
       </c>
       <c r="S9">
-        <v>0.05533947689178065</v>
+        <v>0.1979748457356841</v>
       </c>
       <c r="T9">
-        <v>0.0554803551835002</v>
+        <v>0.1985092512202568</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>7.793901333333333</v>
+        <v>15.16980166666667</v>
       </c>
       <c r="H10">
-        <v>23.381704</v>
+        <v>45.509405</v>
       </c>
       <c r="I10">
-        <v>0.1331260639078274</v>
+        <v>0.347279076358968</v>
       </c>
       <c r="J10">
-        <v>0.1333511684651965</v>
+        <v>0.3476225564081497</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N10">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O10">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P10">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q10">
-        <v>4.762993395024</v>
+        <v>18.53230956449666</v>
       </c>
       <c r="R10">
-        <v>28.577960370144</v>
+        <v>111.19385738698</v>
       </c>
       <c r="S10">
-        <v>0.0003405207480248416</v>
+        <v>0.001777057229485667</v>
       </c>
       <c r="T10">
-        <v>0.0002275917435301401</v>
+        <v>0.001187902765087359</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>7.793901333333333</v>
+        <v>15.16980166666667</v>
       </c>
       <c r="H11">
-        <v>23.381704</v>
+        <v>45.509405</v>
       </c>
       <c r="I11">
-        <v>0.1331260639078274</v>
+        <v>0.347279076358968</v>
       </c>
       <c r="J11">
-        <v>0.1333511684651965</v>
+        <v>0.3476225564081497</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N11">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O11">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P11">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q11">
-        <v>1081.261714188858</v>
+        <v>1527.983147437936</v>
       </c>
       <c r="R11">
-        <v>9731.355427699718</v>
+        <v>13751.84832694142</v>
       </c>
       <c r="S11">
-        <v>0.07730265763351055</v>
+        <v>0.1465178146974578</v>
       </c>
       <c r="T11">
-        <v>0.07749944782677684</v>
+        <v>0.1469133191034391</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.2964835</v>
+        <v>0.129484</v>
       </c>
       <c r="H12">
-        <v>0.592967</v>
+        <v>0.258968</v>
       </c>
       <c r="I12">
-        <v>0.005064175139068095</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J12">
-        <v>0.00338182547821588</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N12">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O12">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P12">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q12">
-        <v>0.04266951000866667</v>
+        <v>0.07515825405733333</v>
       </c>
       <c r="R12">
-        <v>0.256017060052</v>
+        <v>0.450949524344</v>
       </c>
       <c r="S12">
-        <v>3.0505718276209E-06</v>
+        <v>7.206900913417378E-06</v>
       </c>
       <c r="T12">
-        <v>2.038891800394839E-06</v>
+        <v>4.817569958192599E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.2964835</v>
+        <v>0.129484</v>
       </c>
       <c r="H13">
-        <v>0.592967</v>
+        <v>0.258968</v>
       </c>
       <c r="I13">
-        <v>0.005064175139068095</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J13">
-        <v>0.00338182547821588</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.340352</v>
       </c>
       <c r="O13">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P13">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q13">
-        <v>0.03363625073066667</v>
+        <v>0.01469004612266667</v>
       </c>
       <c r="R13">
-        <v>0.201817504384</v>
+        <v>0.08814027673599999</v>
       </c>
       <c r="S13">
-        <v>2.404756905924709E-06</v>
+        <v>1.408623818467479E-06</v>
       </c>
       <c r="T13">
-        <v>1.607252480678866E-06</v>
+        <v>9.416174680034016E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.2964835</v>
+        <v>0.129484</v>
       </c>
       <c r="H14">
-        <v>0.592967</v>
+        <v>0.258968</v>
       </c>
       <c r="I14">
-        <v>0.005064175139068095</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J14">
-        <v>0.00338182547821588</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N14">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O14">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P14">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q14">
-        <v>29.44537403575367</v>
+        <v>17.62277714774667</v>
       </c>
       <c r="R14">
-        <v>176.672244214522</v>
+        <v>105.73666288648</v>
       </c>
       <c r="S14">
-        <v>0.002105138504496197</v>
+        <v>0.001689842457305648</v>
       </c>
       <c r="T14">
-        <v>0.001406998385237216</v>
+        <v>0.001129602634224892</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.2964835</v>
+        <v>0.129484</v>
       </c>
       <c r="H15">
-        <v>0.592967</v>
+        <v>0.258968</v>
       </c>
       <c r="I15">
-        <v>0.005064175139068095</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J15">
-        <v>0.00338182547821588</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N15">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O15">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P15">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q15">
-        <v>0.181186403553</v>
+        <v>0.158185164472</v>
       </c>
       <c r="R15">
-        <v>0.7247456142120001</v>
+        <v>0.6327406578879999</v>
       </c>
       <c r="S15">
-        <v>1.29535618785983E-05</v>
+        <v>1.516832476513736E-05</v>
       </c>
       <c r="T15">
-        <v>5.771794621377321E-06</v>
+        <v>6.759675352141898E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.2964835</v>
+        <v>0.129484</v>
       </c>
       <c r="H16">
-        <v>0.592967</v>
+        <v>0.258968</v>
       </c>
       <c r="I16">
-        <v>0.005064175139068095</v>
+        <v>0.002964249956021043</v>
       </c>
       <c r="J16">
-        <v>0.00338182547821588</v>
+        <v>0.001978121185893458</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N16">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O16">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P16">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q16">
-        <v>41.13168023665583</v>
+        <v>13.04231750752533</v>
       </c>
       <c r="R16">
-        <v>246.790081419935</v>
+        <v>78.253905045152</v>
       </c>
       <c r="S16">
-        <v>0.002940627743959755</v>
+        <v>0.001250623649218373</v>
       </c>
       <c r="T16">
-        <v>0.001965409154076212</v>
+        <v>0.0008359996888902286</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>22.35954133333334</v>
+        <v>0.287247</v>
       </c>
       <c r="H17">
-        <v>67.078624</v>
+        <v>0.861741</v>
       </c>
       <c r="I17">
-        <v>0.3819188364318155</v>
+        <v>0.006575885106400611</v>
       </c>
       <c r="J17">
-        <v>0.3825646278576433</v>
+        <v>0.006582389055223097</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N17">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O17">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P17">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q17">
-        <v>3.217955375971556</v>
+        <v>0.166730893417</v>
       </c>
       <c r="R17">
-        <v>28.961598383744</v>
+        <v>1.500578040753</v>
       </c>
       <c r="S17">
-        <v>0.0002300613250652793</v>
+        <v>1.598777197705046E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002306469946141496</v>
+        <v>1.603092873769288E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>22.35954133333334</v>
+        <v>0.287247</v>
       </c>
       <c r="H18">
-        <v>67.078624</v>
+        <v>0.861741</v>
       </c>
       <c r="I18">
-        <v>0.3819188364318155</v>
+        <v>0.006575885106400611</v>
       </c>
       <c r="J18">
-        <v>0.3825646278576433</v>
+        <v>0.006582389055223097</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.340352</v>
       </c>
       <c r="O18">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P18">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q18">
-        <v>2.536704870627556</v>
+        <v>0.032588363648</v>
       </c>
       <c r="R18">
-        <v>22.830343835648</v>
+        <v>0.293295272832</v>
       </c>
       <c r="S18">
-        <v>0.0001813566739283714</v>
+        <v>3.124887754342838E-06</v>
       </c>
       <c r="T18">
-        <v>0.0001818183555316314</v>
+        <v>3.133322953008555E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>22.35954133333334</v>
+        <v>0.287247</v>
       </c>
       <c r="H19">
-        <v>67.078624</v>
+        <v>0.861741</v>
       </c>
       <c r="I19">
-        <v>0.3819188364318155</v>
+        <v>0.006575885106400611</v>
       </c>
       <c r="J19">
-        <v>0.3825646278576433</v>
+        <v>0.006582389055223097</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N19">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O19">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P19">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q19">
-        <v>2220.646537928399</v>
+        <v>39.09432723239</v>
       </c>
       <c r="R19">
-        <v>19985.81884135559</v>
+        <v>351.84894509151</v>
       </c>
       <c r="S19">
-        <v>0.1587607114853752</v>
+        <v>0.003748742519026872</v>
       </c>
       <c r="T19">
-        <v>0.1591648703080178</v>
+        <v>0.003758861726621022</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>22.35954133333334</v>
+        <v>0.287247</v>
       </c>
       <c r="H20">
-        <v>67.078624</v>
+        <v>0.861741</v>
       </c>
       <c r="I20">
-        <v>0.3819188364318155</v>
+        <v>0.006575885106400611</v>
       </c>
       <c r="J20">
-        <v>0.3825646278576433</v>
+        <v>0.006582389055223097</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N20">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O20">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P20">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q20">
-        <v>13.664318180544</v>
+        <v>0.3509175955259999</v>
       </c>
       <c r="R20">
-        <v>81.98590908326402</v>
+        <v>2.105505573156</v>
       </c>
       <c r="S20">
-        <v>0.0009769032753539732</v>
+        <v>3.36493758596538E-05</v>
       </c>
       <c r="T20">
-        <v>0.000652926792237328</v>
+        <v>2.24934717711459E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>22.35954133333334</v>
+        <v>0.287247</v>
       </c>
       <c r="H21">
-        <v>67.078624</v>
+        <v>0.861741</v>
       </c>
       <c r="I21">
-        <v>0.3819188364318155</v>
+        <v>0.006575885106400611</v>
       </c>
       <c r="J21">
-        <v>0.3825646278576433</v>
+        <v>0.006582389055223097</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N21">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O21">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P21">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q21">
-        <v>3101.978708295591</v>
+        <v>28.933046377036</v>
       </c>
       <c r="R21">
-        <v>27917.80837466032</v>
+        <v>260.397417393324</v>
       </c>
       <c r="S21">
-        <v>0.2217698036720927</v>
+        <v>0.002774380551782691</v>
       </c>
       <c r="T21">
-        <v>0.2223343654072424</v>
+        <v>0.002781869605140228</v>
       </c>
     </row>
   </sheetData>
